--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3465" windowWidth="15945" windowHeight="4110"/>
@@ -9,13 +9,13 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Sno</t>
   </si>
@@ -56,68 +56,32 @@
     <t>User Regression</t>
   </si>
   <si>
-    <t>TS_004</t>
-  </si>
-  <si>
-    <t>TS_005</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>TS_006</t>
-  </si>
-  <si>
     <t>Automation Method's</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>TS_007</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>TS_008</t>
-  </si>
-  <si>
-    <t>productSearch</t>
-  </si>
-  <si>
-    <t>productSelect</t>
-  </si>
-  <si>
-    <t>productShopping</t>
-  </si>
-  <si>
-    <t>productCart</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>productDeliver</t>
-  </si>
-  <si>
-    <t>productRemove</t>
-  </si>
-  <si>
-    <t>Logout</t>
+    <t>TC001_HealerProcess()</t>
+  </si>
+  <si>
+    <t>Healer Flow</t>
+  </si>
+  <si>
+    <t>Verify Healer identity</t>
+  </si>
+  <si>
+    <t>Verify Service activity</t>
+  </si>
+  <si>
+    <t>TC002_AdminPage()</t>
+  </si>
+  <si>
+    <t>TC003_HealerVerification()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,7 +625,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -794,7 +758,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -829,7 +792,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1005,12 +967,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
@@ -1019,7 +983,7 @@
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1033,13 +997,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1047,19 +1011,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1067,19 +1031,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1087,121 +1051,21 @@
         <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Sno</t>
   </si>
@@ -75,6 +75,18 @@
   </si>
   <si>
     <t>TC003_HealerVerification()</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Customer Flow and Cancellation</t>
+  </si>
+  <si>
+    <t>TS_004</t>
+  </si>
+  <si>
+    <t>TC004_CustomerProcess()</t>
   </si>
 </sst>
 </file>
@@ -605,7 +617,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -626,6 +638,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -968,17 +983,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
   </cols>
@@ -1047,19 +1062,39 @@
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/TestExecution.xlsx
+++ b/data/TestExecution.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
   <si>
     <t>Sno</t>
   </si>
@@ -26,9 +26,6 @@
     <t>Flag</t>
   </si>
   <si>
-    <t>Package Name</t>
-  </si>
-  <si>
     <t>Testcase No</t>
   </si>
   <si>
@@ -59,34 +56,220 @@
     <t>Automation Method's</t>
   </si>
   <si>
-    <t>TC001_HealerProcess()</t>
-  </si>
-  <si>
-    <t>Healer Flow</t>
-  </si>
-  <si>
     <t>Verify Healer identity</t>
   </si>
   <si>
     <t>Verify Service activity</t>
   </si>
   <si>
-    <t>TC002_AdminPage()</t>
-  </si>
-  <si>
-    <t>TC003_HealerVerification()</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>Customer Flow and Cancellation</t>
-  </si>
-  <si>
     <t>TS_004</t>
   </si>
   <si>
-    <t>TC004_CustomerProcess()</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>TS_005</t>
+  </si>
+  <si>
+    <t>TS_006</t>
+  </si>
+  <si>
+    <t>TS_007</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>TS_008</t>
+  </si>
+  <si>
+    <t>TS_009</t>
+  </si>
+  <si>
+    <t>First Customer Cancellation</t>
+  </si>
+  <si>
+    <t>Second Customer Cancellation</t>
+  </si>
+  <si>
+    <t>First Customer Refund</t>
+  </si>
+  <si>
+    <t>Second Customer Refund</t>
+  </si>
+  <si>
+    <t>TS_010</t>
+  </si>
+  <si>
+    <t>TS_011</t>
+  </si>
+  <si>
+    <t>TS_012</t>
+  </si>
+  <si>
+    <t>TS_013</t>
+  </si>
+  <si>
+    <t>TS_014</t>
+  </si>
+  <si>
+    <t>TS_015</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Healer Login</t>
+  </si>
+  <si>
+    <t>Add First location</t>
+  </si>
+  <si>
+    <t>TC002_FirstLocation()</t>
+  </si>
+  <si>
+    <t>TS_016</t>
+  </si>
+  <si>
+    <t>TS_017</t>
+  </si>
+  <si>
+    <t>TS_018</t>
+  </si>
+  <si>
+    <t>TS_019</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>TS_020</t>
+  </si>
+  <si>
+    <t>Class Service</t>
+  </si>
+  <si>
+    <t>General Service</t>
+  </si>
+  <si>
+    <t>Home Service</t>
+  </si>
+  <si>
+    <t>Retreat Service</t>
+  </si>
+  <si>
+    <t>Add Second Location</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Logout Healer</t>
+  </si>
+  <si>
+    <t>TC001_HealerLogin()</t>
+  </si>
+  <si>
+    <t>TC003_YogaService()</t>
+  </si>
+  <si>
+    <t>TC004_PersonalYoga()</t>
+  </si>
+  <si>
+    <t>TC005_YogaTherapy()</t>
+  </si>
+  <si>
+    <t>TC006_RetreatService()</t>
+  </si>
+  <si>
+    <t>TC007_SecondLocation()</t>
+  </si>
+  <si>
+    <t>TC008_Abhayanga()</t>
+  </si>
+  <si>
+    <t>TC009_Urdvartana()</t>
+  </si>
+  <si>
+    <t>TC010_JanuVasti()</t>
+  </si>
+  <si>
+    <t>TC011_RetreatService()</t>
+  </si>
+  <si>
+    <t>TC012_HealerLogout()</t>
+  </si>
+  <si>
+    <t>TC013_AdminPage()</t>
+  </si>
+  <si>
+    <t>TC014_HealerVerification()</t>
+  </si>
+  <si>
+    <t>TC015_FirstCustomer()</t>
+  </si>
+  <si>
+    <t>TC016_SecondCustomer()</t>
+  </si>
+  <si>
+    <t>TC017_FirstCustomerCancellation()</t>
+  </si>
+  <si>
+    <t>TC018_SecondCustomerCancellation()</t>
+  </si>
+  <si>
+    <t>TC019_FirstRefund()</t>
+  </si>
+  <si>
+    <t>TC020_SecondRefund()</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>First Customer add 1st location</t>
+  </si>
+  <si>
+    <t>Second Customer 2nd location</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -983,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -995,7 +1178,7 @@
     <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" customHeight="1">
@@ -1003,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -1020,87 +1203,407 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>7</v>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F21">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
